--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://ontology.deic.org/cv/beer-variables/</t>
+          <t>http://ontology.deic.dk/cv/beer-variables/</t>
         </is>
       </c>
       <c r="C1" t="inlineStr"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://ontology.deic.org/cv/beer-variables/</t>
+          <t>http://ontology.deic.dk/cv/beer-variables/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://ontology.deic.dk/cv/beer-variables/</t>
+          <t>http://ontology.deic.dk/cv/beer-ontology/</t>
         </is>
       </c>
       <c r="C1" t="inlineStr"/>
@@ -466,12 +466,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>beer-vars</t>
+          <t>beer-onto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://ontology.deic.dk/cv/beer-variables/</t>
+          <t>http://ontology.deic.dk/cv/beer-ontology/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -1096,7 +1096,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>beer-vars:Deprecated</t>
+          <t>beer-onto:Deprecated</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1141,7 +1141,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>beer-vars:</t>
+          <t>beer-onto:</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -1178,7 +1178,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>beer-vars:</t>
+          <t>beer-onto:</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -1211,7 +1211,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>beer-vars:</t>
+          <t>beer-onto:</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -1244,7 +1244,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>beer-vars:</t>
+          <t>beer-onto:</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -1277,7 +1277,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>beer-vars:</t>
+          <t>beer-onto:</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1310,7 +1310,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>beer-vars:</t>
+          <t>beer-onto:</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -1343,7 +1343,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>beer-vars:</t>
+          <t>beer-onto:</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1376,7 +1376,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>beer-vars:</t>
+          <t>beer-onto:</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1141,11 +1141,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>beer-onto:</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+          <t>beer-onto:BeerVariables</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Beer Variables</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Beer related variables</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -1178,11 +1186,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>beer-onto:</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+          <t>beer-onto:BeerSubjects</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Beer Subjects</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Beer related subjects</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -1211,10 +1227,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>beer-onto:</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>beer-onto:BeerBreweries</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Beer Breweries</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1149,12 +1149,12 @@
           <t>Beer Variables</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>Beer related variables</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -1194,12 +1194,12 @@
           <t>Beer Subjects</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>Beer related subjects</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AD64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,9 @@
       <c r="Y1" t="inlineStr"/>
       <c r="Z1" t="inlineStr"/>
       <c r="AA1" t="inlineStr"/>
+      <c r="AB1" t="inlineStr"/>
+      <c r="AC1" t="inlineStr"/>
+      <c r="AD1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -498,6 +501,9 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -539,6 +545,9 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -580,6 +589,9 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -621,6 +633,9 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -662,6 +677,9 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -703,19 +721,26 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>dct:title</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A good title for your vocabulary</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>wikidata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.wikidata.org/wiki/</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -740,19 +765,26 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>skos:prefLable</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A short name for your vocabulary</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>beer</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://rdf.ag/o/beer#</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -777,16 +809,19 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Give a good defintion of this vocabulary, what it is, what is going to be use for, etc.</t>
+          <t>The PaRI beer vocabulary</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -814,16 +849,19 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>skos:prefLable</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Put ORCID no of the vocabulary creator, repeat this row for every additional creator.</t>
+          <t>PaRI beer</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -851,16 +889,19 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>dct:description</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>State under what license this vocabulary is provided, preferably chose license from https://spdx.org/licenses/ , since SPDX.org provides machine-actionable licenses</t>
+          <t>This vocabulary is used to create a machine actionable dataset of beer and beer consumption, see data dictionary (https://docs.google.com/document/d/1aBXcrtrZ-rR01sa86JWyURH3xj9oj2uM4cogmvTaDuw/edit#)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -888,16 +929,19 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Always provide the version of the vocabulary. You can use form majorChange.minorChange.bugFix (e.g., 1.0.1a)</t>
+          <t>https://orcid.org/0000-0002-3890-6620</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -925,16 +969,19 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>The initial date of the vocabulary creation in form of YYYY-MM-DDTHH:mm:ss+timeZoneOffset (e.g., 2020-10-30T13:43:00+00:00)</t>
+          <t>https://orcid.org/0000-0001-5201-0268</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -962,16 +1009,19 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>The date of the last update of the vocabulary in form of YYYY-MM-DDTHH:mm:ss+timeZoneOffset (e.g., 2020-10-30T13:43:00+00:00)</t>
+          <t>https://orcid.org/0000-0003-1172-3522</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -999,88 +1049,35 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>skos:broadMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>skos:narrowMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>skos:relatedMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>owl:deprecated^^xsd:boolean</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>dct:isReplacedBy</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>https://orcid.org/0000-0003-0485-089X</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
@@ -1092,32 +1089,23 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>beer-onto:Deprecated</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Deprecated</t>
-        </is>
-      </c>
+          <t>dct:creator</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>This is a set of controlled terms which are deprecated.</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1137,32 +1125,23 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>beer-onto:BeerVariables</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Beer Variables</t>
-        </is>
-      </c>
+          <t>dct:creator</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Beer related variables</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1182,24 +1161,23 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>beer-onto:BeerSubjects</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Beer Subjects</t>
+          <t>https://spdx.org/licenses/CC-BY-4.0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Beer related subjects</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1223,16 +1201,19 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>beer-onto:BeerBreweries</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Beer Breweries</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1260,14 +1241,21 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>beer-onto:</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>pav:createdOn</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2021-06-14T11:16+02:00</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
@@ -1293,14 +1281,21 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>beer-onto:</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
+          <t>pav:lastUpdatedOn</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2021-06-14T11:16+02:00</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
@@ -1326,31 +1321,106 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>beer-onto:</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>skos:broadMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>skos:narrowMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>skos:relatedMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>owl:deprecated^^xsd:boolean</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>dct:isReplacedBy</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>rdf:type</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>rdfs:label</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>beer-onto:iso3166-2-name</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
@@ -1359,17 +1429,32 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>beer-onto:</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
+          <t>beer-onto:iso3166-2-name</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>iso3166-2-name</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ISO 3166-2 naming convention</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/ISO_3166-2</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1381,8 +1466,16 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>iso3166-2-name</t>
+        </is>
+      </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
@@ -1392,20 +1485,35 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>beer-onto:</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
+          <t>beer-onto:Deprecated</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Deprecated</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>This is a set of controlled terms which are deprecated.</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1425,6 +1533,1829 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerVariables</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Beer Variables</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Beer related variables</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerType</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Beer Type</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Beer types as defined by wikipedia</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBreweries</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Beer Breweries</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Brewery as written on the beer</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBrewedLocation</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Beer Brewed Location</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>wikidata:Property:P300</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>beer-onto:MissingValue</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MissingValue</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>This represents a missing value, can be missing for any number of reasons</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://ena-docs.readthedocs.io/en/latest/submit/samples/missing-values.html</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBreweries, beer-onto:BeerType, beer-onto:BeerBrewedLocation</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>beer-onto:A.LeCoq</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>A. Le Coq</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBreweries</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>wikidata:Q278905</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>beer-onto:Pohjala</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Põhjala</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://pohjalabeer.com/</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBreweries</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>beer-onto:Purtse</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Purtse</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.purtsepruulikoda.ee/en/brewery</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBreweries</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>beer-onto:Saku</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Saku</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.saku.ee/et/international/</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBreweries</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>wikidata:Q1851509</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>beer-onto:Tanker</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Tanker</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://tanker.ee/?lang=en</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBreweries</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>beer-onto:CerveceriaModelo</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Cervecería Modelo</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBreweries</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>beer-onto:OsloBrewingCo.</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Oslo Brewing Co.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBreweries</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>beer-onto:7FjellBryggeri</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>7 Fjell Bryggeri</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>7 Fjell</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://www.7fjellbryggeri.com</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBreweries</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>beer-onto:Enlitenol</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>En liten øl</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ELØ</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://enliten.no/en/</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBreweries</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>beer-onto:UppsalaBrygghus</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Uppsala Brygghus</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.uppsalabrygghus.se/</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBreweries</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>beer-onto:GotlandsBryggeri</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Gotlands Bryggeri</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBreweries</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>wikidata:Q10507678</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>beer-onto:Lannabruk</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Lännabruk</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://lannadryckeshandel.se/</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBreweries</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>beer-onto:Omnipollo</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Omnipollo</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBreweries</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>beer-onto:LagunitasBrewingCompany</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Lagunitas Brewing Company</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBreweries</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>beer-onto:AleSmith</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>AleSmith</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBreweries</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>wikidata:Q4714043</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>beer-onto:Alcoholpercentage</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Alcohol percentage</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerVariables</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>beer-onto:Addedflavouring</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Added flavouring</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerVariables</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>beer-onto:Ale</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Ale</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerType</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>beer:Ale</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>beer-onto:Sour</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Sour</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerType</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>beer:SourBeer</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>beer-onto:Gose</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Gose</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Gose</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerType</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>wikidata:Q561987</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>beer-onto:Pilsner</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Pilsner</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerType</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>beer:Pilsner</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>beer-onto:IndiaPaleAle</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>IndiaPaleAle</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/India_pale_ale</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerType</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>beer:IndiaPaleAle, wikidata:Q1543214</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>beer-onto:Stout</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Stout</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerType</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>beer:Stout</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>beer-onto:Tartu</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Tartu</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBrewedLocation</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>beer-onto:Harju</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Harju</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBrewedLocation</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>EE-37</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>beer-onto:Ida-Viru</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Ida-Viru</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBrewedLocation</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>beer-onto:Rae</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Rae</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBrewedLocation</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>beer-onto:Mexico</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBrewedLocation</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>beer-onto:Oslo</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBrewedLocation</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>beer-onto:Vestland</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Vestland</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBrewedLocation</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>beer-onto:Uppsala</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBrewedLocation</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>beer-onto:Gotland</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBrewedLocation</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>beer-onto:Stockholm</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBrewedLocation</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr"/>
+      <c r="AD63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>beer-onto:California</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>beer-onto:BeerBrewedLocation</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1457,7 +1457,11 @@
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>wikidata:Property:P300</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1689,11 +1693,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>wikidata:Property:P300</t>
-        </is>
-      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
